--- a/biology/Botanique/Épipactis_de_Müller/Épipactis_de_Müller.xlsx
+++ b/biology/Botanique/Épipactis_de_Müller/Épipactis_de_Müller.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89pipactis_de_M%C3%BCller</t>
+          <t>Épipactis_de_Müller</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Epipactis muelleri
 L’Épipactis de Müller ou Épipactis de Mueller (Epipactis muelleri) est une espèce de plante herbacée vivace de la famille des Orchidacées.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89pipactis_de_M%C3%BCller</t>
+          <t>Épipactis_de_Müller</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle mesure de 30 à 60 cm. Ses feuilles sont étroites et lancéolées, les fleurs sont blanc vert pâle, parfois légèrement rosées, avec un hypochile brun.
 Elle ressemble beaucoup à l'Épipactis à larges feuilles qui s'en distingue principalement par ses feuilles bien plus larges et ses fleurs dans les tons rosés.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89pipactis_de_M%C3%BCller</t>
+          <t>Épipactis_de_Müller</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">On la rencontre sur des substrats calcaires, en situation éclairée ou à mi-ombre, notamment en bordure  des bois.
 </t>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89pipactis_de_M%C3%BCller</t>
+          <t>Épipactis_de_Müller</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,7 +591,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce est trouvée en Europe.
 </t>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89pipactis_de_M%C3%BCller</t>
+          <t>Épipactis_de_Müller</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,9 +624,11 @@
           <t>Vulnérabilité</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est classée "LC" : Préoccupation mineure[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce est classée "LC" : Préoccupation mineure.
 </t>
         </is>
       </c>
@@ -619,7 +639,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>%C3%89pipactis_de_M%C3%BCller</t>
+          <t>Épipactis_de_Müller</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -637,9 +657,11 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En France, l'espèce est protégée dans les régions Alsace, Lorraine, Nord-Pas-de-Calais, Pays de la Loire et Poitou-Charentes[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En France, l'espèce est protégée dans les régions Alsace, Lorraine, Nord-Pas-de-Calais, Pays de la Loire et Poitou-Charentes.
 En Belgique, l'espèce est légalement protégée.
 </t>
         </is>
